--- a/lib_testcase/com.aislend.UserRegistration.xlsx
+++ b/lib_testcase/com.aislend.UserRegistration.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3073" uniqueCount="259">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="283">
   <si>
     <t>Action</t>
   </si>
@@ -806,6 +806,78 @@
   </si>
   <si>
     <t>Title verified succesfully: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyTitle: City Market Norwalk - Online Grocery Supermarket with Home Delivery</t>
+  </si>
+  <si>
+    <t>VerifyElement: null</t>
+  </si>
+  <si>
+    <t>Click: null</t>
+  </si>
+  <si>
+    <t>VerifyText: Create New Account</t>
+  </si>
+  <si>
+    <t>SetText: Akash</t>
+  </si>
+  <si>
+    <t>SetText: sangal</t>
+  </si>
+  <si>
+    <t>ClearText: null</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter your email address.</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter your password.</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter your confirm password.</t>
+  </si>
+  <si>
+    <t>SetText: 123456</t>
+  </si>
+  <si>
+    <t>SetText: komal@bravvura.in</t>
+  </si>
+  <si>
+    <t>SetText: komal@</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>SetText: 1234567</t>
+  </si>
+  <si>
+    <t>VerifyText: Please make sure your passwords match.</t>
+  </si>
+  <si>
+    <t>SetText: komal@d.com</t>
+  </si>
+  <si>
+    <t>SetText: 123</t>
+  </si>
+  <si>
+    <t>VerifyText: Please enter 6 or more characters. Leading and trailing spaces will be ignored.</t>
+  </si>
+  <si>
+    <t>SetText: Randomemailid</t>
+  </si>
+  <si>
+    <t>Wait: 6000</t>
+  </si>
+  <si>
+    <t>VerifyText: Akash Sangal</t>
+  </si>
+  <si>
+    <t>VerifyText: A customer with the same email already exists in an associated website.</t>
+  </si>
+  <si>
+    <t>VerifyNoElement: null</t>
   </si>
 </sst>
 </file>
@@ -1660,7 +1732,7 @@
         <v>255</v>
       </c>
       <c r="L2" s="4" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="M2" s="4" t="s">
         <v>147</v>
@@ -1699,7 +1771,7 @@
         <v>69</v>
       </c>
       <c r="L3" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M3" s="4" t="s">
         <v>147</v>
@@ -1738,7 +1810,7 @@
         <v>70</v>
       </c>
       <c r="L4" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M4" s="4" t="s">
         <v>147</v>
@@ -1777,7 +1849,7 @@
         <v>98</v>
       </c>
       <c r="L5" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M5" s="4" t="s">
         <v>147</v>
@@ -1816,7 +1888,7 @@
         <v>185</v>
       </c>
       <c r="L6" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M6" s="4" t="s">
         <v>147</v>
@@ -1855,7 +1927,7 @@
         <v>186</v>
       </c>
       <c r="L7" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M7" s="4" t="s">
         <v>147</v>
@@ -1896,7 +1968,7 @@
         <v>187</v>
       </c>
       <c r="L8" s="4" t="s">
-        <v>165</v>
+        <v>262</v>
       </c>
       <c r="M8" s="4" t="s">
         <v>147</v>
@@ -1935,7 +2007,7 @@
         <v>188</v>
       </c>
       <c r="L9" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M9" s="4" t="s">
         <v>147</v>
@@ -1974,7 +2046,7 @@
         <v>190</v>
       </c>
       <c r="L10" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M10" s="4" t="s">
         <v>147</v>
@@ -2013,7 +2085,7 @@
         <v>191</v>
       </c>
       <c r="L11" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M11" s="4" t="s">
         <v>147</v>
@@ -2052,7 +2124,7 @@
         <v>192</v>
       </c>
       <c r="L12" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M12" s="4" t="s">
         <v>147</v>
@@ -2091,7 +2163,7 @@
         <v>193</v>
       </c>
       <c r="L13" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M13" s="4" t="s">
         <v>147</v>
@@ -2130,7 +2202,7 @@
         <v>194</v>
       </c>
       <c r="L14" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M14" s="4" t="s">
         <v>147</v>
@@ -2169,7 +2241,7 @@
         <v>195</v>
       </c>
       <c r="L15" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M15" s="4" t="s">
         <v>147</v>
@@ -2208,7 +2280,7 @@
         <v>196</v>
       </c>
       <c r="L16" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M16" s="4" t="s">
         <v>147</v>
@@ -2247,7 +2319,7 @@
         <v>197</v>
       </c>
       <c r="L17" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M17" s="4" t="s">
         <v>147</v>
@@ -2288,7 +2360,7 @@
         <v>198</v>
       </c>
       <c r="L18" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M18" s="4" t="s">
         <v>147</v>
@@ -2329,7 +2401,7 @@
         <v>199</v>
       </c>
       <c r="L19" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M19" s="4" t="s">
         <v>147</v>
@@ -2368,7 +2440,7 @@
         <v>201</v>
       </c>
       <c r="L20" s="4" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M20" s="4" t="s">
         <v>147</v>
@@ -2407,7 +2479,7 @@
         <v>205</v>
       </c>
       <c r="L21" s="4" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M21" s="4" t="s">
         <v>147</v>
@@ -2446,7 +2518,7 @@
         <v>206</v>
       </c>
       <c r="L22" s="4" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M22" s="4" t="s">
         <v>147</v>
@@ -2485,7 +2557,7 @@
         <v>207</v>
       </c>
       <c r="L23" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M23" s="4" t="s">
         <v>147</v>
@@ -2526,7 +2598,7 @@
         <v>208</v>
       </c>
       <c r="L24" s="4" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="M24" s="4" t="s">
         <v>147</v>
@@ -2567,7 +2639,7 @@
         <v>210</v>
       </c>
       <c r="L25" s="4" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="M25" s="4" t="s">
         <v>147</v>
@@ -2608,7 +2680,7 @@
         <v>211</v>
       </c>
       <c r="L26" s="4" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="M26" s="4" t="s">
         <v>147</v>
@@ -2649,7 +2721,7 @@
         <v>198</v>
       </c>
       <c r="L27" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M27" s="4" t="s">
         <v>147</v>
@@ -2690,7 +2762,7 @@
         <v>199</v>
       </c>
       <c r="L28" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M28" s="4" t="s">
         <v>147</v>
@@ -2729,7 +2801,7 @@
         <v>201</v>
       </c>
       <c r="L29" s="4" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M29" s="4" t="s">
         <v>147</v>
@@ -2770,7 +2842,7 @@
         <v>212</v>
       </c>
       <c r="L30" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M30" s="4" t="s">
         <v>147</v>
@@ -2811,7 +2883,7 @@
         <v>213</v>
       </c>
       <c r="L31" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M31" s="4" t="s">
         <v>147</v>
@@ -2850,7 +2922,7 @@
         <v>207</v>
       </c>
       <c r="L32" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M32" s="4" t="s">
         <v>147</v>
@@ -2891,7 +2963,7 @@
         <v>208</v>
       </c>
       <c r="L33" s="4" t="s">
-        <v>167</v>
+        <v>266</v>
       </c>
       <c r="M33" s="4" t="s">
         <v>147</v>
@@ -2932,7 +3004,7 @@
         <v>198</v>
       </c>
       <c r="L34" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M34" s="4" t="s">
         <v>147</v>
@@ -2973,7 +3045,7 @@
         <v>199</v>
       </c>
       <c r="L35" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M35" s="4" t="s">
         <v>147</v>
@@ -3014,7 +3086,7 @@
         <v>200</v>
       </c>
       <c r="L36" s="4" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="M36" s="4" t="s">
         <v>147</v>
@@ -3053,7 +3125,7 @@
         <v>205</v>
       </c>
       <c r="L37" s="4" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M37" s="4" t="s">
         <v>147</v>
@@ -3092,7 +3164,7 @@
         <v>206</v>
       </c>
       <c r="L38" s="4" t="s">
-        <v>166</v>
+        <v>265</v>
       </c>
       <c r="M38" s="4" t="s">
         <v>147</v>
@@ -3131,7 +3203,7 @@
         <v>207</v>
       </c>
       <c r="L39" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M39" s="4" t="s">
         <v>147</v>
@@ -3172,7 +3244,7 @@
         <v>210</v>
       </c>
       <c r="L40" s="4" t="s">
-        <v>168</v>
+        <v>267</v>
       </c>
       <c r="M40" s="4" t="s">
         <v>147</v>
@@ -3213,7 +3285,7 @@
         <v>211</v>
       </c>
       <c r="L41" s="4" t="s">
-        <v>169</v>
+        <v>268</v>
       </c>
       <c r="M41" s="4" t="s">
         <v>147</v>
@@ -3254,7 +3326,7 @@
         <v>198</v>
       </c>
       <c r="L42" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M42" s="4" t="s">
         <v>147</v>
@@ -3295,7 +3367,7 @@
         <v>199</v>
       </c>
       <c r="L43" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M43" s="4" t="s">
         <v>147</v>
@@ -3336,7 +3408,7 @@
         <v>200</v>
       </c>
       <c r="L44" s="4" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="M44" s="4" t="s">
         <v>147</v>
@@ -3377,7 +3449,7 @@
         <v>212</v>
       </c>
       <c r="L45" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M45" s="4" t="s">
         <v>147</v>
@@ -3418,7 +3490,7 @@
         <v>213</v>
       </c>
       <c r="L46" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M46" s="4" t="s">
         <v>147</v>
@@ -3457,7 +3529,7 @@
         <v>207</v>
       </c>
       <c r="L47" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M47" s="4" t="s">
         <v>147</v>
@@ -3498,7 +3570,7 @@
         <v>214</v>
       </c>
       <c r="L48" s="4" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="M48" s="4" t="s">
         <v>147</v>
@@ -3539,7 +3611,7 @@
         <v>198</v>
       </c>
       <c r="L49" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M49" s="4" t="s">
         <v>147</v>
@@ -3580,7 +3652,7 @@
         <v>199</v>
       </c>
       <c r="L50" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M50" s="4" t="s">
         <v>147</v>
@@ -3621,7 +3693,7 @@
         <v>200</v>
       </c>
       <c r="L51" s="4" t="s">
-        <v>170</v>
+        <v>270</v>
       </c>
       <c r="M51" s="4" t="s">
         <v>147</v>
@@ -3662,7 +3734,7 @@
         <v>212</v>
       </c>
       <c r="L52" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M52" s="4" t="s">
         <v>147</v>
@@ -3703,7 +3775,7 @@
         <v>213</v>
       </c>
       <c r="L53" s="4" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="M53" s="4" t="s">
         <v>147</v>
@@ -3742,7 +3814,7 @@
         <v>207</v>
       </c>
       <c r="L54" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M54" s="4" t="s">
         <v>147</v>
@@ -3783,7 +3855,7 @@
         <v>215</v>
       </c>
       <c r="L55" s="4" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="M55" s="4" t="s">
         <v>147</v>
@@ -3824,7 +3896,7 @@
         <v>198</v>
       </c>
       <c r="L56" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M56" s="4" t="s">
         <v>147</v>
@@ -3865,7 +3937,7 @@
         <v>199</v>
       </c>
       <c r="L57" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M57" s="4" t="s">
         <v>147</v>
@@ -3906,7 +3978,7 @@
         <v>200</v>
       </c>
       <c r="L58" s="4" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="M58" s="4" t="s">
         <v>147</v>
@@ -3947,7 +4019,7 @@
         <v>212</v>
       </c>
       <c r="L59" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M59" s="4" t="s">
         <v>147</v>
@@ -3988,7 +4060,7 @@
         <v>213</v>
       </c>
       <c r="L60" s="4" t="s">
-        <v>173</v>
+        <v>273</v>
       </c>
       <c r="M60" s="4" t="s">
         <v>147</v>
@@ -4027,7 +4099,7 @@
         <v>207</v>
       </c>
       <c r="L61" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M61" s="4" t="s">
         <v>147</v>
@@ -4068,7 +4140,7 @@
         <v>215</v>
       </c>
       <c r="L62" s="4" t="s">
-        <v>174</v>
+        <v>274</v>
       </c>
       <c r="M62" s="4" t="s">
         <v>147</v>
@@ -4109,7 +4181,7 @@
         <v>214</v>
       </c>
       <c r="L63" s="4" t="s">
-        <v>172</v>
+        <v>272</v>
       </c>
       <c r="M63" s="4" t="s">
         <v>147</v>
@@ -4150,7 +4222,7 @@
         <v>198</v>
       </c>
       <c r="L64" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M64" s="4" t="s">
         <v>147</v>
@@ -4191,7 +4263,7 @@
         <v>199</v>
       </c>
       <c r="L65" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M65" s="4" t="s">
         <v>147</v>
@@ -4232,7 +4304,7 @@
         <v>200</v>
       </c>
       <c r="L66" s="4" t="s">
-        <v>175</v>
+        <v>275</v>
       </c>
       <c r="M66" s="4" t="s">
         <v>147</v>
@@ -4273,7 +4345,7 @@
         <v>212</v>
       </c>
       <c r="L67" s="4" t="s">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="M67" s="4" t="s">
         <v>147</v>
@@ -4314,7 +4386,7 @@
         <v>213</v>
       </c>
       <c r="L68" s="4" t="s">
-        <v>176</v>
+        <v>276</v>
       </c>
       <c r="M68" s="4" t="s">
         <v>147</v>
@@ -4353,7 +4425,7 @@
         <v>207</v>
       </c>
       <c r="L69" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M69" s="4" t="s">
         <v>147</v>
@@ -4394,7 +4466,7 @@
         <v>216</v>
       </c>
       <c r="L70" s="4" t="s">
-        <v>177</v>
+        <v>277</v>
       </c>
       <c r="M70" s="4" t="s">
         <v>147</v>
@@ -4433,7 +4505,7 @@
         <v>229</v>
       </c>
       <c r="L71" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M71" s="4" t="s">
         <v>147</v>
@@ -4472,7 +4544,7 @@
         <v>230</v>
       </c>
       <c r="L72" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M72" s="4" t="s">
         <v>147</v>
@@ -4511,7 +4583,7 @@
         <v>231</v>
       </c>
       <c r="L73" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M73" s="4" t="s">
         <v>147</v>
@@ -4550,7 +4622,7 @@
         <v>234</v>
       </c>
       <c r="L74" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M74" s="4" t="s">
         <v>147</v>
@@ -4589,7 +4661,7 @@
         <v>230</v>
       </c>
       <c r="L75" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M75" s="4" t="s">
         <v>147</v>
@@ -4628,7 +4700,7 @@
         <v>231</v>
       </c>
       <c r="L76" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M76" s="4" t="s">
         <v>147</v>
@@ -4669,7 +4741,7 @@
         <v>198</v>
       </c>
       <c r="L77" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M77" s="4" t="s">
         <v>147</v>
@@ -4710,7 +4782,7 @@
         <v>199</v>
       </c>
       <c r="L78" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M78" s="4" t="s">
         <v>147</v>
@@ -4751,7 +4823,7 @@
         <v>200</v>
       </c>
       <c r="L79" s="4" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="M79" s="4" t="s">
         <v>147</v>
@@ -4792,7 +4864,7 @@
         <v>212</v>
       </c>
       <c r="L80" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M80" s="4" t="s">
         <v>147</v>
@@ -4833,7 +4905,7 @@
         <v>213</v>
       </c>
       <c r="L81" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M81" s="4" t="s">
         <v>147</v>
@@ -4872,7 +4944,7 @@
         <v>207</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M82" s="4" t="s">
         <v>147</v>
@@ -4909,7 +4981,7 @@
         <v>217</v>
       </c>
       <c r="L83" s="4" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="M83" s="4" t="s">
         <v>147</v>
@@ -4950,7 +5022,7 @@
         <v>218</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="M84" s="4" t="s">
         <v>147</v>
@@ -4989,7 +5061,7 @@
         <v>219</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M85" s="4" t="s">
         <v>147</v>
@@ -5028,7 +5100,7 @@
         <v>220</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M86" s="4" t="s">
         <v>147</v>
@@ -5065,7 +5137,7 @@
         <v>217</v>
       </c>
       <c r="L87" s="4" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="M87" s="4" t="s">
         <v>147</v>
@@ -5104,7 +5176,7 @@
         <v>69</v>
       </c>
       <c r="L88" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M88" s="4" t="s">
         <v>147</v>
@@ -5143,7 +5215,7 @@
         <v>221</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M89" s="4" t="s">
         <v>147</v>
@@ -5184,7 +5256,7 @@
         <v>222</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="M90" s="4" t="s">
         <v>147</v>
@@ -5225,7 +5297,7 @@
         <v>223</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M91" s="4" t="s">
         <v>147</v>
@@ -5264,7 +5336,7 @@
         <v>224</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M92" s="4" t="s">
         <v>147</v>
@@ -5305,7 +5377,7 @@
         <v>218</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>157</v>
+        <v>280</v>
       </c>
       <c r="M93" s="4" t="s">
         <v>147</v>
@@ -5344,7 +5416,7 @@
         <v>219</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M94" s="4" t="s">
         <v>147</v>
@@ -5383,7 +5455,7 @@
         <v>225</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M95" s="4" t="s">
         <v>147</v>
@@ -5420,7 +5492,7 @@
         <v>217</v>
       </c>
       <c r="L96" s="4" t="s">
-        <v>181</v>
+        <v>279</v>
       </c>
       <c r="M96" s="4" t="s">
         <v>147</v>
@@ -5459,7 +5531,7 @@
         <v>69</v>
       </c>
       <c r="L97" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M97" s="4" t="s">
         <v>147</v>
@@ -5498,7 +5570,7 @@
         <v>70</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M98" s="4" t="s">
         <v>147</v>
@@ -5537,7 +5609,7 @@
         <v>98</v>
       </c>
       <c r="L99" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M99" s="4" t="s">
         <v>147</v>
@@ -5576,7 +5648,7 @@
         <v>185</v>
       </c>
       <c r="L100" s="4" t="s">
-        <v>149</v>
+        <v>260</v>
       </c>
       <c r="M100" s="4" t="s">
         <v>147</v>
@@ -5615,7 +5687,7 @@
         <v>186</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M101" s="4" t="s">
         <v>147</v>
@@ -5656,7 +5728,7 @@
         <v>198</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>151</v>
+        <v>263</v>
       </c>
       <c r="M102" s="4" t="s">
         <v>147</v>
@@ -5697,7 +5769,7 @@
         <v>199</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>152</v>
+        <v>264</v>
       </c>
       <c r="M103" s="4" t="s">
         <v>147</v>
@@ -5738,7 +5810,7 @@
         <v>200</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>178</v>
+        <v>278</v>
       </c>
       <c r="M104" s="4" t="s">
         <v>147</v>
@@ -5779,7 +5851,7 @@
         <v>212</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M105" s="4" t="s">
         <v>147</v>
@@ -5820,7 +5892,7 @@
         <v>213</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>153</v>
+        <v>269</v>
       </c>
       <c r="M106" s="4" t="s">
         <v>147</v>
@@ -5859,7 +5931,7 @@
         <v>207</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M107" s="4" t="s">
         <v>147</v>
@@ -5900,7 +5972,7 @@
         <v>251</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>254</v>
+        <v>281</v>
       </c>
       <c r="M108" s="4" t="s">
         <v>147</v>
@@ -5939,7 +6011,7 @@
         <v>253</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M109" s="4" t="s">
         <v>147</v>
@@ -5978,7 +6050,7 @@
         <v>237</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M110" s="4" t="s">
         <v>147</v>
@@ -6017,7 +6089,7 @@
         <v>238</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M111" s="4" t="s">
         <v>147</v>
@@ -6056,7 +6128,7 @@
         <v>240</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>150</v>
+        <v>261</v>
       </c>
       <c r="M112" s="4" t="s">
         <v>147</v>
@@ -6095,7 +6167,7 @@
         <v>243</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>149</v>
+        <v>282</v>
       </c>
       <c r="M113" s="4" t="s">
         <v>147</v>

--- a/lib_testcase/com.aislend.UserRegistration.xlsx
+++ b/lib_testcase/com.aislend.UserRegistration.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4534" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5206" uniqueCount="283">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.UserRegistration.xlsx
+++ b/lib_testcase/com.aislend.UserRegistration.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5206" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6214" uniqueCount="283">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.UserRegistration.xlsx
+++ b/lib_testcase/com.aislend.UserRegistration.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6214" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9217" uniqueCount="283">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.UserRegistration.xlsx
+++ b/lib_testcase/com.aislend.UserRegistration.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9217" uniqueCount="283">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10420" uniqueCount="319">
   <si>
     <t>Action</t>
   </si>
@@ -878,6 +878,312 @@
   </si>
   <si>
     <t>VerifyNoElement: null</t>
+  </si>
+  <si>
+    <t>City Market Norwalk - Online Grocery Supermarket with Home Delivery: Title not verified</t>
+  </si>
+  <si>
+    <t>Method has not yet been implemented (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 5 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: io.appium.java_client.android.AndroidDriver
+Capabilities [{appPackage=com.android.chrome, noReset=true, deviceName=5a0c7cb7d140, fullReset=false, platform=LINUX, deviceUDID=5a0c7cb7d140, desired={appPackage=com.android.chrome, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, noReset=true, acceptSslCerts=true, platformVersion=7.1.2, automationName=Appium, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}, udid=5a0c7cb7d140, platformName=Android, deviceName=Redmi111, fullReset=false}, acceptSslCerts=true, platformVersion=7.1.2, webStorageEnabled=false, automationName=Appium, takesScreenshot=true, javascriptEnabled=true, udid=5a0c7cb7d140, platformName=Android, deviceManufacturer=Xiaomi, deviceScreenSize=720x1280, networkConnectionEnabled=true, warnings={}, databaseEnabled=false, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, locationContextEnabled=false, deviceModel=Redmi 4, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}}]
+Session ID: 1d2b8c36-2476-43a3-a92d-f188cfc82631</t>
+  </si>
+  <si>
+    <t>action click failed</t>
+  </si>
+  <si>
+    <t>Method is not implemented (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 10 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: io.appium.java_client.android.AndroidDriver
+Capabilities [{appPackage=com.android.chrome, noReset=true, deviceName=5a0c7cb7d140, fullReset=false, platform=LINUX, deviceUDID=5a0c7cb7d140, desired={appPackage=com.android.chrome, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, noReset=true, acceptSslCerts=true, platformVersion=7.1.2, automationName=Appium, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}, udid=5a0c7cb7d140, platformName=Android, deviceName=Redmi111, fullReset=false}, acceptSslCerts=true, platformVersion=7.1.2, webStorageEnabled=false, automationName=Appium, takesScreenshot=true, javascriptEnabled=true, udid=5a0c7cb7d140, platformName=Android, deviceManufacturer=Xiaomi, deviceScreenSize=720x1280, networkConnectionEnabled=true, warnings={}, databaseEnabled=false, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, locationContextEnabled=false, deviceModel=Redmi 4, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}}]
+Session ID: 1d2b8c36-2476-43a3-a92d-f188cfc82631</t>
+  </si>
+  <si>
+    <t>text not verified: Create New Account</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //h3[contains(text(),'Create New Account')] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: io.appium.java_client.android.AndroidDriver
+Capabilities [{appPackage=com.android.chrome, noReset=true, deviceName=5a0c7cb7d140, fullReset=false, platform=LINUX, deviceUDID=5a0c7cb7d140, desired={appPackage=com.android.chrome, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, noReset=true, acceptSslCerts=true, platformVersion=7.1.2, automationName=Appium, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}, udid=5a0c7cb7d140, platformName=Android, deviceName=Redmi111, fullReset=false}, acceptSslCerts=true, platformVersion=7.1.2, webStorageEnabled=false, automationName=Appium, takesScreenshot=true, javascriptEnabled=true, udid=5a0c7cb7d140, platformName=Android, deviceManufacturer=Xiaomi, deviceScreenSize=720x1280, networkConnectionEnabled=true, warnings={}, databaseEnabled=false, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, locationContextEnabled=false, deviceModel=Redmi 4, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}}]
+Session ID: 1d2b8c36-2476-43a3-a92d-f188cfc82631</t>
+  </si>
+  <si>
+    <t>action set text failed: Akash</t>
+  </si>
+  <si>
+    <t>Method is not implemented (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 5 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: io.appium.java_client.android.AndroidDriver
+Capabilities [{appPackage=com.android.chrome, noReset=true, deviceName=5a0c7cb7d140, fullReset=false, platform=LINUX, deviceUDID=5a0c7cb7d140, desired={appPackage=com.android.chrome, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, noReset=true, acceptSslCerts=true, platformVersion=7.1.2, automationName=Appium, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}, udid=5a0c7cb7d140, platformName=Android, deviceName=Redmi111, fullReset=false}, acceptSslCerts=true, platformVersion=7.1.2, webStorageEnabled=false, automationName=Appium, takesScreenshot=true, javascriptEnabled=true, udid=5a0c7cb7d140, platformName=Android, deviceManufacturer=Xiaomi, deviceScreenSize=720x1280, networkConnectionEnabled=true, warnings={}, databaseEnabled=false, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, locationContextEnabled=false, deviceModel=Redmi 4, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}}]
+Session ID: 1d2b8c36-2476-43a3-a92d-f188cfc82631</t>
+  </si>
+  <si>
+    <t>action set text failed: sangal</t>
+  </si>
+  <si>
+    <t>Method is not implemented (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 6 milliseconds
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: io.appium.java_client.android.AndroidDriver
+Capabilities [{appPackage=com.android.chrome, noReset=true, deviceName=5a0c7cb7d140, fullReset=false, platform=LINUX, deviceUDID=5a0c7cb7d140, desired={appPackage=com.android.chrome, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, noReset=true, acceptSslCerts=true, platformVersion=7.1.2, automationName=Appium, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}, udid=5a0c7cb7d140, platformName=Android, deviceName=Redmi111, fullReset=false}, acceptSslCerts=true, platformVersion=7.1.2, webStorageEnabled=false, automationName=Appium, takesScreenshot=true, javascriptEnabled=true, udid=5a0c7cb7d140, platformName=Android, deviceManufacturer=Xiaomi, deviceScreenSize=720x1280, networkConnectionEnabled=true, warnings={}, databaseEnabled=false, appActivity=com.google.android.apps.chrome.Main, app-wait-activity=activity-to-wait-for, locationContextEnabled=false, deviceModel=Redmi 4, chromeOptions={args=[start-maximized], extensions=[], prefs={profile.default_content_settings.popups=0, download.default_directory=D:\Akash\aislend\CityMarket\lib_download\}}}]
+Session ID: 1d2b8c36-2476-43a3-a92d-f188cfc82631</t>
+  </si>
+  <si>
+    <t>action Clear text failed</t>
+  </si>
+  <si>
+    <t>Returned value cannot be converted to WebElement: {ELEMENT=7}
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: driver.version: AndroidDriver</t>
+  </si>
+  <si>
+    <t>Returned value cannot be converted to WebElement: {ELEMENT=8}
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: driver.version: AndroidDriver</t>
+  </si>
+  <si>
+    <t>Returned value cannot be converted to WebElement: {ELEMENT=9}
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: driver.version: AndroidDriver</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'My Account')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 36 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=xpath, value=//a[contains(text(),'My Account')]}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"xpath","selector":"//a[contains(text(),'Register Now')]"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 18 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=xpath, value=//a[contains(text(),'Register Now')]}</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.xpath: //h3[contains(text(),'Create New Account')] (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.firstname"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 12 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.firstname}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.lastname"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.lastname}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 15 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.email}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 13 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.pass.confirm"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 16 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.pass.confirm}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin-create"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 14 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=magestore-button-sociallogin-create}</t>
+  </si>
+  <si>
+    <t>text not verified: Please enter your email address.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: advice-required-entry-email-socialogin.email (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0</t>
+  </si>
+  <si>
+    <t>text not verified: Please enter your password.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: advice-required-entry-password-socialogin.pass (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0</t>
+  </si>
+  <si>
+    <t>text not verified: Please enter your confirm password.</t>
+  </si>
+  <si>
+    <t>Expected condition failed: waiting for presence of element located by: By.id: advice-required-entry-c-password-socialogin.pass.confirm (tried for 40 second(s) with 500 MILLISECONDS interval)
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.firstname"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 23 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.firstname}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.lastname"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 20 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.lastname}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.email"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 23 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.email}</t>
+  </si>
+  <si>
+    <t>action set text failed: 123456</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.pass"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 24 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.pass}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"socialogin.pass.confirm"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 26 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=socialogin.pass.confirm}</t>
+  </si>
+  <si>
+    <t>no such element: Unable to locate element: {"method":"id","selector":"magestore-button-sociallogin-create"}
+  (Session info: chrome=68.0.3440.106)
+  (Driver info: chromedriver=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91),platform=Windows NT 10.0.17134 x86_64) (WARNING: The server did not provide any stacktrace information)
+Command duration or timeout: 21 milliseconds
+For documentation on this error, please visit: http://seleniumhq.org/exceptions/no_such_element.html
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: org.openqa.selenium.chrome.ChromeDriver
+Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
+Session ID: a0ca1111a966272d876f72092b0c07e0
+*** Element info: {Using=id, value=magestore-button-sociallogin-create}</t>
   </si>
 </sst>
 </file>

--- a/lib_testcase/com.aislend.UserRegistration.xlsx
+++ b/lib_testcase/com.aislend.UserRegistration.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10420" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11428" uniqueCount="319">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.UserRegistration.xlsx
+++ b/lib_testcase/com.aislend.UserRegistration.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11428" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13108" uniqueCount="319">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.UserRegistration.xlsx
+++ b/lib_testcase/com.aislend.UserRegistration.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13108" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13780" uniqueCount="319">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.UserRegistration.xlsx
+++ b/lib_testcase/com.aislend.UserRegistration.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13780" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14788" uniqueCount="319">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.UserRegistration.xlsx
+++ b/lib_testcase/com.aislend.UserRegistration.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14788" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17140" uniqueCount="319">
   <si>
     <t>Action</t>
   </si>

--- a/lib_testcase/com.aislend.UserRegistration.xlsx
+++ b/lib_testcase/com.aislend.UserRegistration.xlsx
@@ -29,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17140" uniqueCount="319">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17968" uniqueCount="333">
   <si>
     <t>Action</t>
   </si>
@@ -1184,6 +1184,54 @@
 Capabilities [{applicationCacheEnabled=false, rotatable=false, mobileEmulationEnabled=false, networkConnectionEnabled=false, chrome={chromedriverVersion=2.36.540470 (e522d04694c7ebea4ba8821272dbef4f9b818c91), userDataDir=C:\Users\Akash\AppData\Local\Temp\scoped_dir3576_19302}, takesHeapSnapshot=true, pageLoadStrategy=normal, databaseEnabled=false, handlesAlerts=true, hasTouchScreen=false, version=68.0.3440.106, platform=XP, browserConnectionEnabled=false, nativeEvents=true, acceptSslCerts=false, acceptInsecureCerts=false, locationContextEnabled=true, webStorageEnabled=true, browserName=chrome, takesScreenshot=true, javascriptEnabled=true, cssSelectorsEnabled=true, setWindowRect=true, unexpectedAlertBehaviour=}]
 Session ID: a0ca1111a966272d876f72092b0c07e0
 *** Element info: {Using=id, value=magestore-button-sociallogin-create}</t>
+  </si>
+  <si>
+    <t>org.apache.http.conn.HttpHostConnectException: Connect to localhost:37192 [localhost/127.0.0.1, localhost/0:0:0:0:0:0:0:1] failed: Connection refused: connect
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: driver.version: RemoteWebDriver</t>
+  </si>
+  <si>
+    <t>action set text failed: komal@bravvura.in</t>
+  </si>
+  <si>
+    <t>action set text failed: komal@</t>
+  </si>
+  <si>
+    <t>text not verified: Please enter a valid email address (Ex: johndoe@domain.com).</t>
+  </si>
+  <si>
+    <t>action set text failed: 1234567</t>
+  </si>
+  <si>
+    <t>text not verified: Please make sure your passwords match.</t>
+  </si>
+  <si>
+    <t>action set text failed: komal@d.com</t>
+  </si>
+  <si>
+    <t>action set text failed: 123</t>
+  </si>
+  <si>
+    <t>text not verified: Please enter 6 or more characters. Leading and trailing spaces will be ignored.</t>
+  </si>
+  <si>
+    <t>action set text failed: Randomemailid</t>
+  </si>
+  <si>
+    <t>text not verified: Akash Sangal</t>
+  </si>
+  <si>
+    <t>text not verified: A customer with the same email already exists in an associated website.</t>
+  </si>
+  <si>
+    <t>Element not verified</t>
+  </si>
+  <si>
+    <t>org.apache.http.conn.HttpHostConnectException: Connect to localhost:5778 [localhost/127.0.0.1, localhost/0:0:0:0:0:0:0:1] failed: Connection refused: connect
+Build info: version: 'unknown', revision: '1969d75', time: '2016-10-18 09:43:45 -0700'
+System info: host: 'DESKTOP-OEL817D', ip: '192.168.134.2', os.name: 'Windows 10', os.arch: 'amd64', os.version: '10.0', java.version: '1.8.0_161'
+Driver info: driver.version: RemoteWebDriver</t>
   </si>
 </sst>
 </file>
@@ -5250,13 +5298,13 @@
         <v>207</v>
       </c>
       <c r="L82" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M82" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N82" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O82" s="4" t="s">
         <v>81</v>
@@ -5328,13 +5376,13 @@
         <v>218</v>
       </c>
       <c r="L84" s="4" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="M84" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N84" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O84" s="4" t="s">
         <v>81</v>
@@ -5367,13 +5415,13 @@
         <v>219</v>
       </c>
       <c r="L85" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M85" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N85" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O85" s="4" t="s">
         <v>81</v>
@@ -5406,13 +5454,13 @@
         <v>220</v>
       </c>
       <c r="L86" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M86" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N86" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O86" s="4" t="s">
         <v>81</v>
@@ -5485,7 +5533,7 @@
         <v>260</v>
       </c>
       <c r="M88" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N88" s="4" t="s">
         <v>148</v>
@@ -5521,13 +5569,13 @@
         <v>221</v>
       </c>
       <c r="L89" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M89" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N89" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O89" s="4" t="s">
         <v>81</v>
@@ -5562,13 +5610,13 @@
         <v>222</v>
       </c>
       <c r="L90" s="4" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="M90" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N90" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O90" s="4" t="s">
         <v>81</v>
@@ -5603,13 +5651,13 @@
         <v>223</v>
       </c>
       <c r="L91" s="4" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="M91" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N91" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O91" s="4" t="s">
         <v>81</v>
@@ -5642,13 +5690,13 @@
         <v>224</v>
       </c>
       <c r="L92" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M92" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N92" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O92" s="4" t="s">
         <v>81</v>
@@ -5683,13 +5731,13 @@
         <v>218</v>
       </c>
       <c r="L93" s="4" t="s">
-        <v>280</v>
+        <v>329</v>
       </c>
       <c r="M93" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N93" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O93" s="4" t="s">
         <v>81</v>
@@ -5722,13 +5770,13 @@
         <v>219</v>
       </c>
       <c r="L94" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M94" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N94" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O94" s="4" t="s">
         <v>81</v>
@@ -5761,13 +5809,13 @@
         <v>225</v>
       </c>
       <c r="L95" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M95" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N95" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O95" s="4" t="s">
         <v>81</v>
@@ -5840,7 +5888,7 @@
         <v>260</v>
       </c>
       <c r="M97" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N97" s="4" t="s">
         <v>148</v>
@@ -5876,13 +5924,13 @@
         <v>70</v>
       </c>
       <c r="L98" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M98" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N98" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O98" s="4" t="s">
         <v>81</v>
@@ -5918,7 +5966,7 @@
         <v>260</v>
       </c>
       <c r="M99" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N99" s="4" t="s">
         <v>148</v>
@@ -5957,7 +6005,7 @@
         <v>260</v>
       </c>
       <c r="M100" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N100" s="4" t="s">
         <v>148</v>
@@ -5993,13 +6041,13 @@
         <v>186</v>
       </c>
       <c r="L101" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M101" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N101" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O101" s="4" t="s">
         <v>81</v>
@@ -6034,13 +6082,13 @@
         <v>198</v>
       </c>
       <c r="L102" s="4" t="s">
-        <v>263</v>
+        <v>289</v>
       </c>
       <c r="M102" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N102" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O102" s="4" t="s">
         <v>81</v>
@@ -6075,13 +6123,13 @@
         <v>199</v>
       </c>
       <c r="L103" s="4" t="s">
-        <v>264</v>
+        <v>291</v>
       </c>
       <c r="M103" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N103" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O103" s="4" t="s">
         <v>81</v>
@@ -6116,13 +6164,13 @@
         <v>200</v>
       </c>
       <c r="L104" s="4" t="s">
-        <v>278</v>
+        <v>328</v>
       </c>
       <c r="M104" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N104" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O104" s="4" t="s">
         <v>81</v>
@@ -6157,13 +6205,13 @@
         <v>212</v>
       </c>
       <c r="L105" s="4" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="M105" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N105" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O105" s="4" t="s">
         <v>81</v>
@@ -6198,13 +6246,13 @@
         <v>213</v>
       </c>
       <c r="L106" s="4" t="s">
-        <v>269</v>
+        <v>315</v>
       </c>
       <c r="M106" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N106" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O106" s="4" t="s">
         <v>81</v>
@@ -6237,13 +6285,13 @@
         <v>207</v>
       </c>
       <c r="L107" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M107" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N107" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O107" s="4" t="s">
         <v>81</v>
@@ -6278,13 +6326,13 @@
         <v>251</v>
       </c>
       <c r="L108" s="4" t="s">
-        <v>281</v>
+        <v>330</v>
       </c>
       <c r="M108" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N108" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O108" s="4" t="s">
         <v>81</v>
@@ -6317,13 +6365,13 @@
         <v>253</v>
       </c>
       <c r="L109" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M109" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N109" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O109" s="4" t="s">
         <v>81</v>
@@ -6356,13 +6404,13 @@
         <v>237</v>
       </c>
       <c r="L110" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M110" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N110" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O110" s="4" t="s">
         <v>81</v>
@@ -6395,13 +6443,13 @@
         <v>238</v>
       </c>
       <c r="L111" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M111" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N111" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O111" s="4" t="s">
         <v>81</v>
@@ -6434,13 +6482,13 @@
         <v>240</v>
       </c>
       <c r="L112" s="4" t="s">
-        <v>261</v>
+        <v>285</v>
       </c>
       <c r="M112" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N112" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O112" s="4" t="s">
         <v>81</v>
@@ -6473,13 +6521,13 @@
         <v>243</v>
       </c>
       <c r="L113" s="4" t="s">
-        <v>282</v>
+        <v>331</v>
       </c>
       <c r="M113" s="4" t="s">
-        <v>147</v>
+        <v>182</v>
       </c>
       <c r="N113" s="4" t="s">
-        <v>148</v>
+        <v>319</v>
       </c>
       <c r="O113" s="4" t="s">
         <v>81</v>
